--- a/biology/Médecine/Jean_Cottraux/Jean_Cottraux.xlsx
+++ b/biology/Médecine/Jean_Cottraux/Jean_Cottraux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Cottraux, né le 27 février 1942 à Montrottier (Rhône), est un psychiatre et psychothérapeute français.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de médecine, Jean Cottraux devient interne des hôpitaux de Lyon (Concours 1965), puis chef de clinique-assistant (1971-1976), médecin-adjoint (1976), psychiatre des Hôpitaux (1981) puis chef de l’unité fonctionnelle de traitement de l’anxiété à l’hôpital neurologique au CHU de Lyon (1992-2007). 
 Il suit tout d’abord une formation psychiatrique classique et une psychanalyse personnelle (1972-1976) auprès de Jacqueline Cosnier, membre titulaire de la Société psychanalytique de Paris. Il part au milieu des années 1970 au Royaume-Uni puis aux États-Unis pour s'initier aux thérapies cognitives et comportementales (TCC). Il est notamment Research Associate auprès du Robert Paul Liberman à l’université de Californie à Los Angeles en 1977.  
 À partir de 1981, il enseigne les TCC en fondant une attestation d’études universitaires, puis un diplôme universitaire et enfin un diplôme inter universitaire, à l’Université Lyon 1. 
-Il est co-auteur du rapport INSERM de 2004[1].
+Il est co-auteur du rapport INSERM de 2004.
 Devant la violente campagne anti-scientifique menée contre ce rapport, il décide, en 2005, de participer à la rédaction collective du « Livre noir de la psychanalyse ».
-Il est président de l'Association française de thérapie comportementale et cognitive (1984-1989)[2], et de l'European Association of Behaviour and Cognitive Therapy (1990). Il est membre fondateur de l’Académie de thérapie cognitive de Philadelphie (2000) et membre étranger de l’American Psychiatric Association (2015).
+Il est président de l'Association française de thérapie comportementale et cognitive (1984-1989), et de l'European Association of Behaviour and Cognitive Therapy (1990). Il est membre fondateur de l’Académie de thérapie cognitive de Philadelphie (2000) et membre étranger de l’American Psychiatric Association (2015).
 Habilité à la direction de recherche (1986), il a conduit des recherches avec l'INSERM, le CNRS et les programmes hospitaliers de recherche clinique sur le traitement et l'étiologie des troubles anxieux, du stress post-traumatique, de la dépression, des troubles obsessionnels compulsifs et des troubles de la personnalité. 
-Après sa retraite du service public, il devient directeur scientifique de l’Institut francophone de formation et de recherche en thérapie comportementale et cognitive (2008-2015). Il y collabore à la mise en place d’un programme de formation à la TCC par l'apprentissage en ligne. Il fait actuellement partie du comité scientifique et pédagogique de cet institut[3].
+Après sa retraite du service public, il devient directeur scientifique de l’Institut francophone de formation et de recherche en thérapie comportementale et cognitive (2008-2015). Il y collabore à la mise en place d’un programme de formation à la TCC par l'apprentissage en ligne. Il fait actuellement partie du comité scientifique et pédagogique de cet institut.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Thérapies comportementales, Masson, 1978.
 Psychomatique et médecine comportementale, Masson, 1981.
@@ -599,7 +615,9 @@
           <t>Autres ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(sous pseudonyme) René de Saint-Jean, Demain vous serez immortel, Odile Jacob, 2019.</t>
         </is>
